--- a/机器人1901班.xlsx
+++ b/机器人1901班.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\wvv\Desktop\excel-automatic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19D99120-DE47-44EF-8AFA-E1525F297BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1939F10F-A31C-4C88-A1EF-EA5EB36C8ED8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,33 +20,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$6</definedName>
   </definedNames>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="176">
-  <si>
-    <r>
-      <t>四川大学锦城学院课程考核及成绩记载表</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">          </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="174">
   <si>
     <t>打印日期：</t>
   </si>
@@ -81,9 +60,6 @@
     <t>选课号</t>
   </si>
   <si>
-    <t>(2021-2022-1)-B09035025-JC2012000200-2</t>
-  </si>
-  <si>
     <t>课程名称</t>
   </si>
   <si>
@@ -598,8 +574,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -630,11 +606,6 @@
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -792,33 +763,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -836,6 +780,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1150,11 +1121,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG7" sqref="AG7"/>
+      <selection activeCell="K2" sqref="K2:U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1169,245 +1140,241 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="20"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="W1" s="4"/>
       <c r="X1" s="3"/>
-      <c r="Y1" s="9">
+      <c r="Y1" s="21">
         <v>44438</v>
       </c>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
-      <c r="AH1" s="10"/>
+      <c r="Z1" s="22"/>
+      <c r="AA1" s="22"/>
+      <c r="AB1" s="22"/>
+      <c r="AC1" s="22"/>
+      <c r="AD1" s="22"/>
+      <c r="AE1" s="22"/>
+      <c r="AF1" s="22"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
     </row>
     <row r="2" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="19"/>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="14">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11">
-        <v>1</v>
-      </c>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11" t="s">
+      <c r="J2" s="14"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11"/>
-      <c r="K2" s="13" t="s">
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="11" t="s">
+      <c r="Z2" s="17"/>
+      <c r="AA2" s="17"/>
+      <c r="AB2" s="17"/>
+      <c r="AC2" s="17"/>
+      <c r="AD2" s="17"/>
+      <c r="AE2" s="17"/>
+      <c r="AF2" s="17"/>
+      <c r="AG2" s="17"/>
+      <c r="AH2" s="18"/>
+    </row>
+    <row r="3" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="13" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="14"/>
-      <c r="AA2" s="14"/>
-      <c r="AB2" s="14"/>
-      <c r="AC2" s="14"/>
-      <c r="AD2" s="14"/>
-      <c r="AE2" s="14"/>
-      <c r="AF2" s="14"/>
-      <c r="AG2" s="14"/>
-      <c r="AH2" s="15"/>
-    </row>
-    <row r="3" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="F3" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11" t="s">
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="18"/>
+      <c r="V3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="13" t="s">
+      <c r="W3" s="14"/>
+      <c r="X3" s="14"/>
+      <c r="Y3" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="11" t="s">
+      <c r="Z3" s="17"/>
+      <c r="AA3" s="17"/>
+      <c r="AB3" s="17"/>
+      <c r="AC3" s="17"/>
+      <c r="AD3" s="17"/>
+      <c r="AE3" s="17"/>
+      <c r="AF3" s="17"/>
+      <c r="AG3" s="17"/>
+      <c r="AH3" s="18"/>
+    </row>
+    <row r="4" spans="1:34" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="13" t="s">
+      <c r="B4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="14"/>
-      <c r="AC3" s="14"/>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="14"/>
-      <c r="AH3" s="15"/>
-    </row>
-    <row r="4" spans="1:34" ht="27.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="11" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="E4" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11" t="s">
+      <c r="F4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="10"/>
+      <c r="V4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
+      <c r="AB4" s="10"/>
+      <c r="AC4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="17" t="s">
+      <c r="AD4" s="9"/>
+      <c r="AE4" s="9"/>
+      <c r="AF4" s="10"/>
+      <c r="AG4" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="19"/>
-      <c r="AC4" s="17" t="s">
+      <c r="AH4" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="19"/>
-      <c r="AG4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="AH4" s="11" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="5" spans="1:34" ht="9" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="22"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="21"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="21"/>
-      <c r="AE5" s="21"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="11"/>
-      <c r="AH5" s="11"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="11"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="14"/>
+      <c r="AH5" s="14"/>
     </row>
     <row r="6" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
       <c r="F6" s="1">
         <v>1</v>
       </c>
@@ -1489,22 +1456,22 @@
       <c r="AF6" s="6">
         <v>4</v>
       </c>
-      <c r="AG6" s="11"/>
-      <c r="AH6" s="11"/>
+      <c r="AG6" s="14"/>
+      <c r="AH6" s="14"/>
     </row>
     <row r="7" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -1538,17 +1505,17 @@
     </row>
     <row r="8" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="7" t="s">
-        <v>31</v>
-      </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -1582,17 +1549,17 @@
     </row>
     <row r="9" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7" t="s">
-        <v>34</v>
-      </c>
       <c r="E9" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -1626,17 +1593,17 @@
     </row>
     <row r="10" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="7" t="s">
-        <v>37</v>
-      </c>
       <c r="E10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
@@ -1670,17 +1637,17 @@
     </row>
     <row r="11" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="E11" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
@@ -1714,17 +1681,17 @@
     </row>
     <row r="12" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="7" t="s">
-        <v>43</v>
-      </c>
       <c r="E12" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
@@ -1758,17 +1725,17 @@
     </row>
     <row r="13" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -1802,17 +1769,17 @@
     </row>
     <row r="14" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="E14" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
@@ -1846,17 +1813,17 @@
     </row>
     <row r="15" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="11"/>
-      <c r="D15" s="7" t="s">
-        <v>52</v>
-      </c>
       <c r="E15" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -1890,17 +1857,17 @@
     </row>
     <row r="16" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="7" t="s">
-        <v>55</v>
-      </c>
       <c r="E16" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
@@ -1934,17 +1901,17 @@
     </row>
     <row r="17" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B17" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="7" t="s">
-        <v>58</v>
-      </c>
       <c r="E17" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -1978,17 +1945,17 @@
     </row>
     <row r="18" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="E18" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
@@ -2022,17 +1989,17 @@
     </row>
     <row r="19" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B19" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="7" t="s">
-        <v>64</v>
-      </c>
       <c r="E19" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -2066,17 +2033,17 @@
     </row>
     <row r="20" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="11"/>
-      <c r="D20" s="7" t="s">
-        <v>67</v>
-      </c>
       <c r="E20" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -2110,17 +2077,17 @@
     </row>
     <row r="21" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B21" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="7" t="s">
-        <v>70</v>
-      </c>
       <c r="E21" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -2154,17 +2121,17 @@
     </row>
     <row r="22" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C22" s="14"/>
+      <c r="D22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B22" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="7" t="s">
-        <v>73</v>
-      </c>
       <c r="E22" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -2198,17 +2165,17 @@
     </row>
     <row r="23" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B23" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="E23" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -2242,17 +2209,17 @@
     </row>
     <row r="24" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B24" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2286,17 +2253,17 @@
     </row>
     <row r="25" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="E25" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -2330,17 +2297,17 @@
     </row>
     <row r="26" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B26" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="7" t="s">
-        <v>85</v>
-      </c>
       <c r="E26" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -2374,17 +2341,17 @@
     </row>
     <row r="27" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B27" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="E27" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
@@ -2418,17 +2385,17 @@
     </row>
     <row r="28" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
@@ -2462,17 +2429,17 @@
     </row>
     <row r="29" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="7" t="s">
-        <v>94</v>
-      </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
@@ -2506,17 +2473,17 @@
     </row>
     <row r="30" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="E30" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
@@ -2550,17 +2517,17 @@
     </row>
     <row r="31" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="7" t="s">
-        <v>100</v>
-      </c>
       <c r="E31" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -2594,17 +2561,17 @@
     </row>
     <row r="32" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="E32" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -2638,17 +2605,17 @@
     </row>
     <row r="33" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="14"/>
+      <c r="D33" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B33" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="7" t="s">
-        <v>106</v>
-      </c>
       <c r="E33" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
@@ -2682,17 +2649,17 @@
     </row>
     <row r="34" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="14"/>
+      <c r="D34" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="7" t="s">
-        <v>109</v>
-      </c>
       <c r="E34" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -2726,17 +2693,17 @@
     </row>
     <row r="35" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="E35" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -2770,17 +2737,17 @@
     </row>
     <row r="36" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="16" t="s">
-        <v>114</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="E36" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -2814,17 +2781,17 @@
     </row>
     <row r="37" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="14"/>
+      <c r="D37" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="7" t="s">
-        <v>118</v>
-      </c>
       <c r="E37" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
@@ -2858,17 +2825,17 @@
     </row>
     <row r="38" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="7" t="s">
-        <v>121</v>
-      </c>
       <c r="E38" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
@@ -2902,17 +2869,17 @@
     </row>
     <row r="39" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="7" t="s">
-        <v>124</v>
-      </c>
       <c r="E39" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
@@ -2946,17 +2913,17 @@
     </row>
     <row r="40" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B40" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="7" t="s">
-        <v>127</v>
-      </c>
       <c r="E40" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
@@ -2990,17 +2957,17 @@
     </row>
     <row r="41" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="7" t="s">
-        <v>130</v>
-      </c>
       <c r="E41" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
@@ -3034,17 +3001,17 @@
     </row>
     <row r="42" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B42" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C42" s="11"/>
-      <c r="D42" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="E42" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
@@ -3078,17 +3045,17 @@
     </row>
     <row r="43" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C43" s="11"/>
-      <c r="D43" s="7" t="s">
-        <v>136</v>
-      </c>
       <c r="E43" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -3122,17 +3089,17 @@
     </row>
     <row r="44" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B44" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="7" t="s">
-        <v>139</v>
-      </c>
       <c r="E44" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -3166,17 +3133,17 @@
     </row>
     <row r="45" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="14"/>
+      <c r="D45" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="7" t="s">
-        <v>142</v>
-      </c>
       <c r="E45" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
@@ -3210,17 +3177,17 @@
     </row>
     <row r="46" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B46" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="C46" s="11"/>
-      <c r="D46" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="E46" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
@@ -3254,17 +3221,17 @@
     </row>
     <row r="47" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="16" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="11"/>
-      <c r="D47" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="E47" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
@@ -3298,17 +3265,17 @@
     </row>
     <row r="48" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="C48" s="14"/>
+      <c r="D48" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B48" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="7" t="s">
-        <v>151</v>
-      </c>
       <c r="E48" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
@@ -3342,17 +3309,17 @@
     </row>
     <row r="49" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B49" s="16" t="s">
-        <v>153</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="7" t="s">
-        <v>154</v>
-      </c>
       <c r="E49" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
@@ -3386,17 +3353,17 @@
     </row>
     <row r="50" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>154</v>
+      </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B50" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="11"/>
-      <c r="D50" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="E50" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
@@ -3430,17 +3397,17 @@
     </row>
     <row r="51" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B51" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="E51" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
@@ -3474,17 +3441,17 @@
     </row>
     <row r="52" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B52" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="E52" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
@@ -3518,17 +3485,17 @@
     </row>
     <row r="53" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B53" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="E53" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
@@ -3562,17 +3529,17 @@
     </row>
     <row r="54" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="14"/>
+      <c r="D54" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="B54" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="7" t="s">
-        <v>169</v>
-      </c>
       <c r="E54" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
@@ -3606,17 +3573,17 @@
     </row>
     <row r="55" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C55" s="14"/>
+      <c r="D55" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="B55" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="7" t="s">
-        <v>172</v>
-      </c>
       <c r="E55" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
@@ -3650,8 +3617,8 @@
     </row>
     <row r="56" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="11"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
@@ -3686,7 +3653,7 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -3714,7 +3681,7 @@
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3742,7 +3709,7 @@
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3770,55 +3737,16 @@
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="F4:U5"/>
-    <mergeCell ref="B4:C6"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="D4:D6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="V3:X3"/>
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="Y1:AH1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:U2"/>
+    <mergeCell ref="V2:X2"/>
+    <mergeCell ref="Y2:AH2"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="Y3:AH3"/>
     <mergeCell ref="B7:C7"/>
@@ -3835,16 +3763,55 @@
     <mergeCell ref="F3:K3"/>
     <mergeCell ref="L3:N3"/>
     <mergeCell ref="O3:U3"/>
-    <mergeCell ref="V3:X3"/>
-    <mergeCell ref="A1:U1"/>
-    <mergeCell ref="Y1:AH1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:U2"/>
-    <mergeCell ref="V2:X2"/>
-    <mergeCell ref="Y2:AH2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="D4:D6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="F4:U5"/>
+    <mergeCell ref="B4:C6"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.39" right="0.11999999999999998" top="0.71" bottom="0.55000000000000004" header="0.47" footer="0.28000000000000003"/>
@@ -3856,7 +3823,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3870,7 +3837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
